--- a/Diccionario de la WBS.xlsx
+++ b/Diccionario de la WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -119,13 +119,391 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Interfaz de Usuario</t>
+  </si>
+  <si>
+    <t>Vistas de login y registro</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Back Office</t>
+  </si>
+  <si>
+    <t>Modulo Carga Excel</t>
+  </si>
+  <si>
+    <t>Catalogo Facebook</t>
+  </si>
+  <si>
+    <t>Servicios al usuario</t>
+  </si>
+  <si>
+    <t>Carrito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalogo </t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Productos destacados</t>
+  </si>
+  <si>
+    <t>Productos relacionados</t>
+  </si>
+  <si>
+    <t>Ofertas</t>
+  </si>
+  <si>
+    <t>Login y registro</t>
+  </si>
+  <si>
+    <t>Formulario de contacto</t>
+  </si>
+  <si>
+    <t>Descuentos personalizados</t>
+  </si>
+  <si>
+    <t>Comentarios y calificaciones</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Envio</t>
+  </si>
+  <si>
+    <t>ABMs</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+  </si>
+  <si>
+    <t>1.4.2.2</t>
+  </si>
+  <si>
+    <t>1.4.2.3</t>
+  </si>
+  <si>
+    <t>1.4.2.4</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Proceso para visualizar los ingresos  y registros del sistema</t>
+  </si>
+  <si>
+    <t>Proceso de visualizacion de los servicios del sistema</t>
+  </si>
+  <si>
+    <t>Proceso de visualizacion de un slider principal, una sección con productos destacados y un menú con opciones para ir a la página con información institucional, al catálogo completo de productos y a un formulario de contacto.</t>
+  </si>
+  <si>
+    <t>Proceso por cual el usuario se comunica con el e-commerce</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceso de desarrollo de un módulo de carga de artículos a partir de un archivo en Excel.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ de artículos a partir de un archivo en Excel.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso para generar el catálogo en el formato requerido por Facebook para la importación en dicha plataforma.
+</t>
+  </si>
+  <si>
+    <t>Procesos de desarrollo de los distintos servicios / funcionalidades solicitadas por el cliente</t>
+  </si>
+  <si>
+    <t>Proceso con el fin de desarrollar una canasta con los pedidos del usuario</t>
+  </si>
+  <si>
+    <t>Proceso  con el fin de mostrar productos en dos posibles estilos visuales (tiles o cards)</t>
+  </si>
+  <si>
+    <t>Proceso con el fin de permitir al usuario buscar por palabras, analizando los textos para el nombre y las descripciones, filtrar por categorías y subcategorías, ordenar por mayor precio, menor precio, nombre ascendente, nombre descendente.</t>
+  </si>
+  <si>
+    <t>Proceso mediante el cual se filtrara los productos con el fin de visualizar los mas vendidos y los que cuentan con mayor valoracion</t>
+  </si>
+  <si>
+    <t>Proceso que muestra productos en oferta con el precio origial tachado y el precio de oferta</t>
+  </si>
+  <si>
+    <t>Proceso de analisis para relacionar dos o más productos en base a la categoria/subcategorias</t>
+  </si>
+  <si>
+    <t>Proceso para desarrollar login y registro, validando roles de los usuarios y permitando recuperar contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de petición de solicitudes por parte del usuario para contactarse con el ecommerce
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceso de generación de códigos de promoción con un % de descuento para entregar a ciertos clientes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso para que los usuarios pudieran dejar comentarios y la valoración (de 1 a 5) para cada producto. También se podrán ingresar comentarios para el vendedor que reciba el pedido.
+</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>ABM de Producto</t>
+  </si>
+  <si>
+    <t>Procesos para desarrollar y mantener las estructuras que sean necesarias para un funcionamiento eficaz</t>
+  </si>
+  <si>
+    <t>Proceso de desarrollo de la estructura de datos para el almacenamiento de toda información generada en el ecommerce</t>
+  </si>
+  <si>
+    <t>Proceso para ingresar el domicilio de entrega y el método de pago. El sistema calcula el costo del envío a partir del peso total en base a una tabla parametrizable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso para gestionar de métodos de pago para los pedidos realizados.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso para la gestion un servidor de manera que sea capaz de atender las peticiones de un cliente y devolverle una respuesta en concordancia. </t>
+  </si>
+  <si>
+    <t>Proceso de selección del método de envío y costos en relación al código postal del cliente. Teniendo en cuenta la información de embalaje (el peso, el ancho,el alto) y tambien poder seleccionar unidad de medida</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de desarrollo de la estructura de las diferentes entidades participantes del ecommerce
+</t>
+  </si>
+  <si>
+    <t>Proceso con el fin del que el administrador pueda gestionar las actividades del sistema</t>
+  </si>
+  <si>
+    <t>Plan de gestion del proyecto (Project charter)</t>
+  </si>
+  <si>
+    <t>ABM Carrito</t>
+  </si>
+  <si>
+    <t>ABM Pedido</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>ABM de Catalogo</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad carrito</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad pedido</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad catalogo</t>
+  </si>
+  <si>
+    <t>ABM de usuario</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad usuario</t>
+  </si>
+  <si>
+    <t>alta baja y modificación de productos</t>
+  </si>
+  <si>
+    <t>alta baja y modificación de pedidos</t>
+  </si>
+  <si>
+    <t>alta baja y modificación de carritos</t>
+  </si>
+  <si>
+    <t>alta baja y modificación del catalogo</t>
+  </si>
+  <si>
+    <t>alta baja y modificación de los usuarios</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario completa (Vistas)</t>
+  </si>
+  <si>
+    <t>Interfaz de login y registro</t>
+  </si>
+  <si>
+    <t>Interfaz de los ABMs</t>
+  </si>
+  <si>
+    <t>Vistas de los ABMs</t>
+  </si>
+  <si>
+    <t>Interfaz del home principal</t>
+  </si>
+  <si>
+    <t>Funcionalidad Login y registro</t>
+  </si>
+  <si>
+    <t>Funcionalidad formulario de contacto</t>
+  </si>
+  <si>
+    <t>Codigo de promoción</t>
+  </si>
+  <si>
+    <t>Estructura Servidor</t>
+  </si>
+  <si>
+    <t>Sistema de pagos</t>
+  </si>
+  <si>
+    <t>Proceso de pedidos</t>
+  </si>
+  <si>
+    <t>Sistema de envio</t>
+  </si>
+  <si>
+    <t>alta baja y modificación de todas las entidades</t>
+  </si>
+  <si>
+    <t>Inicio del proyecto</t>
+  </si>
+  <si>
+    <t>Planificacion del proyecto</t>
+  </si>
+  <si>
+    <t>Ejecucion del proyecto</t>
+  </si>
+  <si>
+    <t>Monitoreo y Control del proyecto</t>
+  </si>
+  <si>
+    <t>Cierre del proyecto</t>
+  </si>
+  <si>
+    <t>Que la pagina cumpla los requisitos del cliente de forma que su interfaz facilite la comprension al usuario,con un sofware reutilizable y eficiente y una documentacion completa y entendible</t>
+  </si>
+  <si>
+    <t>Que se cumpla la planificacion respetando los tiempos y pudiendo entregar calidad al cliente según los requerimientos</t>
+  </si>
+  <si>
+    <t>Que la WBS sea clara sobre la vision a futuro con respecto del proyecto</t>
+  </si>
+  <si>
+    <t>Comprobar que no haya errores  testeando todos los casos de uso posibles</t>
+  </si>
+  <si>
+    <t>Controlar los elementos de manera acorde para que no surjan imprevistos.</t>
+  </si>
+  <si>
+    <t>Realizar una evaluacion del proyecto de cada a mejorar en los siguientes. Que los componentes se integren bien, la aplicación cumpla los objetivos, y la documentacion sea completa y comprensible. Que se logre una eficiencia optima correspondiente a cada uno de los modulos previo ensamblado</t>
+  </si>
+  <si>
+    <t>Que se cumplan los tiempos de planificacion y prevenir errores,  perdidas revisando y evaluando cada etapa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +526,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -163,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,11 +577,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +617,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,28 +966,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="104.85546875" customWidth="1"/>
+    <col min="3" max="3" width="94.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="19" max="19" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -615,8 +1050,11 @@
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -629,8 +1067,14 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -643,8 +1087,14 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -657,8 +1107,14 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -671,8 +1127,26 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -685,8 +1159,26 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -696,8 +1188,544 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="G9:S9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">

--- a/Diccionario de la WBS.xlsx
+++ b/Diccionario de la WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7635" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -31,12 +31,6 @@
     <t xml:space="preserve">Entregables </t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2 </t>
-  </si>
-  <si>
     <t>Calidad</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>Planificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.3 </t>
-  </si>
-  <si>
     <t>Proceso para definir el curso de accion requerido para alcanzar los objetivos del proyecto</t>
   </si>
   <si>
@@ -112,12 +103,6 @@
     <t>Procesos para completar o cerrar formalmente el proyecto, la fase o el contrato.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.5 </t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>1.2.2</t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
@@ -212,30 +194,6 @@
   </si>
   <si>
     <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.4.2.1</t>
-  </si>
-  <si>
-    <t>1.4.2.2</t>
-  </si>
-  <si>
-    <t>1.4.2.3</t>
-  </si>
-  <si>
-    <t>1.4.2.4</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>1.4.4</t>
-  </si>
-  <si>
-    <t>1.4.5</t>
-  </si>
-  <si>
-    <t>1.4.6</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -433,9 +391,6 @@
     <t>Interfaz de los ABMs</t>
   </si>
   <si>
-    <t>Vistas de los ABMs</t>
-  </si>
-  <si>
     <t>Interfaz del home principal</t>
   </si>
   <si>
@@ -497,6 +452,78 @@
   </si>
   <si>
     <t>Que se cumplan los tiempos de planificacion y prevenir errores,  perdidas revisando y evaluando cada etapa</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Categorias y subcategorías</t>
+  </si>
+  <si>
+    <t>Vistas para los ABMs</t>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+  </si>
+  <si>
+    <t>1.3.2.2</t>
+  </si>
+  <si>
+    <t>1.3.2.3</t>
+  </si>
+  <si>
+    <t>1.3.2.4</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
   </si>
 </sst>
 </file>
@@ -968,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,33 +1032,33 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,692 +1066,707 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1.1000000000000001</v>
+      <c r="A6" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.2</v>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.3</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.4</v>
+      <c r="A19" t="s">
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1.6</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1.7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>117</v>
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="G11:S11"/>
-    <mergeCell ref="G9:S9"/>
+    <mergeCell ref="G40:S40"/>
+    <mergeCell ref="G41:S41"/>
+    <mergeCell ref="G39:S39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Diccionario de la WBS.xlsx
+++ b/Diccionario de la WBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -64,9 +64,6 @@
     <t>E-commerce Sports</t>
   </si>
   <si>
-    <t>e-commerce para la venta de productos de deportes</t>
-  </si>
-  <si>
     <t>Administración del proyecto</t>
   </si>
   <si>
@@ -208,16 +205,7 @@
     <t>1.6.2</t>
   </si>
   <si>
-    <t>Proceso para visualizar los ingresos  y registros del sistema</t>
-  </si>
-  <si>
-    <t>Proceso de visualizacion de los servicios del sistema</t>
-  </si>
-  <si>
     <t>Proceso de visualizacion de un slider principal, una sección con productos destacados y un menú con opciones para ir a la página con información institucional, al catálogo completo de productos y a un formulario de contacto.</t>
-  </si>
-  <si>
-    <t>Proceso por cual el usuario se comunica con el e-commerce</t>
   </si>
   <si>
     <r>
@@ -245,15 +233,9 @@
 </t>
   </si>
   <si>
-    <t>Procesos de desarrollo de los distintos servicios / funcionalidades solicitadas por el cliente</t>
-  </si>
-  <si>
     <t>Proceso con el fin de desarrollar una canasta con los pedidos del usuario</t>
   </si>
   <si>
-    <t>Proceso  con el fin de mostrar productos en dos posibles estilos visuales (tiles o cards)</t>
-  </si>
-  <si>
     <t>Proceso con el fin de permitir al usuario buscar por palabras, analizando los textos para el nombre y las descripciones, filtrar por categorías y subcategorías, ordenar por mayor precio, menor precio, nombre ascendente, nombre descendente.</t>
   </si>
   <si>
@@ -261,9 +243,6 @@
   </si>
   <si>
     <t>Proceso que muestra productos en oferta con el precio origial tachado y el precio de oferta</t>
-  </si>
-  <si>
-    <t>Proceso de analisis para relacionar dos o más productos en base a la categoria/subcategorias</t>
   </si>
   <si>
     <t>Proceso para desarrollar login y registro, validando roles de los usuarios y permitando recuperar contraseña</t>
@@ -273,25 +252,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceso de generación de códigos de promoción con un % de descuento para entregar a ciertos clientes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Proceso para que los usuarios pudieran dejar comentarios y la valoración (de 1 a 5) para cada producto. También se podrán ingresar comentarios para el vendedor que reciba el pedido.
 </t>
   </si>
@@ -305,25 +265,13 @@
     <t>ABM de Producto</t>
   </si>
   <si>
-    <t>Procesos para desarrollar y mantener las estructuras que sean necesarias para un funcionamiento eficaz</t>
-  </si>
-  <si>
     <t>Proceso de desarrollo de la estructura de datos para el almacenamiento de toda información generada en el ecommerce</t>
-  </si>
-  <si>
-    <t>Proceso para ingresar el domicilio de entrega y el método de pago. El sistema calcula el costo del envío a partir del peso total en base a una tabla parametrizable.</t>
   </si>
   <si>
     <t xml:space="preserve">Proceso para gestionar de métodos de pago para los pedidos realizados.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Proceso para la gestion un servidor de manera que sea capaz de atender las peticiones de un cliente y devolverle una respuesta en concordancia. </t>
-  </si>
-  <si>
-    <t>Proceso de selección del método de envío y costos en relación al código postal del cliente. Teniendo en cuenta la información de embalaje (el peso, el ancho,el alto) y tambien poder seleccionar unidad de medida</t>
-  </si>
-  <si>
     <t>Proceso de alta baja y modificación de la entidad producto</t>
   </si>
   <si>
@@ -334,9 +282,6 @@
     <t>Proceso con el fin del que el administrador pueda gestionar las actividades del sistema</t>
   </si>
   <si>
-    <t>Plan de gestion del proyecto (Project charter)</t>
-  </si>
-  <si>
     <t>ABM Carrito</t>
   </si>
   <si>
@@ -349,54 +294,21 @@
     <t>1.7.4</t>
   </si>
   <si>
-    <t>ABM de Catalogo</t>
-  </si>
-  <si>
     <t>Proceso de alta baja y modificación de la entidad carrito</t>
   </si>
   <si>
     <t>Proceso de alta baja y modificación de la entidad pedido</t>
   </si>
   <si>
-    <t>Proceso de alta baja y modificación de la entidad catalogo</t>
-  </si>
-  <si>
-    <t>ABM de usuario</t>
-  </si>
-  <si>
     <t>Proceso de alta baja y modificación de la entidad usuario</t>
   </si>
   <si>
-    <t>alta baja y modificación de productos</t>
-  </si>
-  <si>
-    <t>alta baja y modificación de pedidos</t>
-  </si>
-  <si>
-    <t>alta baja y modificación de carritos</t>
-  </si>
-  <si>
-    <t>alta baja y modificación del catalogo</t>
-  </si>
-  <si>
-    <t>alta baja y modificación de los usuarios</t>
-  </si>
-  <si>
-    <t>Interfaz de usuario completa (Vistas)</t>
-  </si>
-  <si>
     <t>Interfaz de login y registro</t>
   </si>
   <si>
-    <t>Interfaz de los ABMs</t>
-  </si>
-  <si>
     <t>Interfaz del home principal</t>
   </si>
   <si>
-    <t>Funcionalidad Login y registro</t>
-  </si>
-  <si>
     <t>Funcionalidad formulario de contacto</t>
   </si>
   <si>
@@ -415,9 +327,6 @@
     <t>Sistema de envio</t>
   </si>
   <si>
-    <t>alta baja y modificación de todas las entidades</t>
-  </si>
-  <si>
     <t>Inicio del proyecto</t>
   </si>
   <si>
@@ -433,24 +342,15 @@
     <t>Cierre del proyecto</t>
   </si>
   <si>
-    <t>Que la pagina cumpla los requisitos del cliente de forma que su interfaz facilite la comprension al usuario,con un sofware reutilizable y eficiente y una documentacion completa y entendible</t>
-  </si>
-  <si>
     <t>Que se cumpla la planificacion respetando los tiempos y pudiendo entregar calidad al cliente según los requerimientos</t>
   </si>
   <si>
-    <t>Que la WBS sea clara sobre la vision a futuro con respecto del proyecto</t>
-  </si>
-  <si>
     <t>Comprobar que no haya errores  testeando todos los casos de uso posibles</t>
   </si>
   <si>
     <t>Controlar los elementos de manera acorde para que no surjan imprevistos.</t>
   </si>
   <si>
-    <t>Realizar una evaluacion del proyecto de cada a mejorar en los siguientes. Que los componentes se integren bien, la aplicación cumpla los objetivos, y la documentacion sea completa y comprensible. Que se logre una eficiencia optima correspondiente a cada uno de los modulos previo ensamblado</t>
-  </si>
-  <si>
     <t>Que se cumplan los tiempos de planificacion y prevenir errores,  perdidas revisando y evaluando cada etapa</t>
   </si>
   <si>
@@ -524,6 +424,165 @@
   </si>
   <si>
     <t>1.7.5</t>
+  </si>
+  <si>
+    <t>ABM Catalogo</t>
+  </si>
+  <si>
+    <t>ABM Usuario</t>
+  </si>
+  <si>
+    <t>Que la pagina cumpla los requisitos del cliente de forma que su interfaz facilite la comprension al usuario,con un sofware reutilizable y eficiente</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario, vistas (login y registro, ABM´s, Home), BackOffice, servicios del usuario, infraestructura donde funcionará la web, checkout asociado al cliente, ABM´s de las distintas entidades y módulos del sistema y llevar a cabo la adminsitración durante todo el proyecto</t>
+  </si>
+  <si>
+    <t>Desarrollo completo del E-commerce para la venta de productos de deportes, junto a todos los módulos necesarios para su funcionamiento, base de datos, servidor y apariencia</t>
+  </si>
+  <si>
+    <t>Proceso por cual se desarrolla la interfaz del usuario (responsive / diseño adaptativo) para que éste pueda utilizar la web fácilmente</t>
+  </si>
+  <si>
+    <t>Interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Que la interfaz sea intuitiva y fácil de usar</t>
+  </si>
+  <si>
+    <t>Proceso para que el usuario se pueda loguear y registrarse en el sitio para efectuar pedidos</t>
+  </si>
+  <si>
+    <t>Que el registro solicite la cantidad necesaria de datos y permita el rápido acceso al sistema</t>
+  </si>
+  <si>
+    <t>Que se tengan los mecanismos necesarios de seguridad</t>
+  </si>
+  <si>
+    <t>Proceso de visualizacion de los distintos  servicios del sistema</t>
+  </si>
+  <si>
+    <t>Interfaz de los ABMs junto a las características de cada uno</t>
+  </si>
+  <si>
+    <t>Que cada producto, carrito, catálogo, etc… tenga la información necesaria para entusiasmar al cliente de comprar en el sitio</t>
+  </si>
+  <si>
+    <t>Que ubique en el lugar adecuado las diferentes opciones, que no esté sobrecargado de información, que muestre un aspecto profesional</t>
+  </si>
+  <si>
+    <t>Funcionalidades para el personal del backoffice</t>
+  </si>
+  <si>
+    <t>Que permita manejar funcionalidades administrativas fácilmente</t>
+  </si>
+  <si>
+    <t>Que permita cargar información para el sitio web sin la necesidad de tener al desarrollador de la mano</t>
+  </si>
+  <si>
+    <t>Formato de catálogo para Facebook</t>
+  </si>
+  <si>
+    <t>Que tenga la compatibilidad necesaria para ser publicado en FaceBook</t>
+  </si>
+  <si>
+    <t>Procesos de asignación de capacidades para el cliente</t>
+  </si>
+  <si>
+    <t>Que el usuario se sienta cómo usando las distintas funciones, las cuales le permitirán gestionar sus pedidos y comprar de un modo sencillo</t>
+  </si>
+  <si>
+    <t>Que muestre el valor final a abonar de todo el pedido solicitado, que tenga la capacidad de eliminar y administrar los productos</t>
+  </si>
+  <si>
+    <t>Proceso  con el fin de mostrar productos en dos estilos visuales (tiles o cards) personalizables</t>
+  </si>
+  <si>
+    <t>Que sea personalizable, que se pueda ver de la forma que uno guste, que permita filtros con el fin de encontrar lo que se busca más rápidamente</t>
+  </si>
+  <si>
+    <t>Que se le recomiende al cliente productos de calidad y utilidad basado en opiniones y compras</t>
+  </si>
+  <si>
+    <t>Proceso de analisis para relacionar dos o más productos en base a la categoria/subcategoria del mismo</t>
+  </si>
+  <si>
+    <t>Que sean de interés para incentivar al usuario a comprar más o a elegir un producto similar</t>
+  </si>
+  <si>
+    <t>Funcionalidad Login y registro con recuperación de datos</t>
+  </si>
+  <si>
+    <t>Que se le brinde ayuda ante las dudas o problemas que le surjan</t>
+  </si>
+  <si>
+    <t>Proceso de generación de códigos de promoción con un % de descuento para entregar a ciertos clientes</t>
+  </si>
+  <si>
+    <t>Que se premie a aquellos clientes que son activos o que compran periódicamente</t>
+  </si>
+  <si>
+    <t>Que se sepa qué opinan los clientes sobre ciertos productos para que el resta sepa lo que realmente comprarán</t>
+  </si>
+  <si>
+    <t>Procesos para desarrollar y mantener las estructuras que sean necesarias para un funcionamiento eficaz y continuo</t>
+  </si>
+  <si>
+    <t>Que la web se mantenga estable y se guarde toda la información necesaria</t>
+  </si>
+  <si>
+    <t>Que se almacene toda la información generada desde el sitio web y no se pierdan datos</t>
+  </si>
+  <si>
+    <t>Proceso para la gestion de un servidor de manera que sea capaz de atender las peticiones de un cliente y devolverle una respuesta en concordancia</t>
+  </si>
+  <si>
+    <t>Que se mantenga en línea 24/7, que responda a todas las solicitudes</t>
+  </si>
+  <si>
+    <t>Proceso donde el cliente ingresará el domicilio de entrega y el método de pago.</t>
+  </si>
+  <si>
+    <t>Que sea seguro y confiable</t>
+  </si>
+  <si>
+    <t>Proceso de selección del método de envío y costos en relación a los datos del cliente, teniendo en cuenta la información de embalaje (el peso, el ancho,el alto) y tambien poder seleccionar unidad de medida. El sistema calcula el costo del envío a partir del peso total en base a una tabla parametrizable.</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación de pedidos</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación de usuarios</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación del catálogo de productos</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación del carrito del cliente</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación de productos</t>
+  </si>
+  <si>
+    <t>Alta, Baja y Modificación de todas las entidades</t>
+  </si>
+  <si>
+    <t>Plan de gestion del proyecto</t>
+  </si>
+  <si>
+    <t>Que se de por finalizado el proyecto / fase en tiempo y forma</t>
+  </si>
+  <si>
+    <t>Que los servicios otorgados le sean cómodos al cliente, mostrando las distintas alternativas posibles</t>
+  </si>
+  <si>
+    <t>Que otorgue una correcta separación de productos para evitar ver contenido no buscado</t>
+  </si>
+  <si>
+    <t>Que la WBS sea clara sobre la vision a futuro con respecto al proyecto</t>
+  </si>
+  <si>
+    <t>Proceso de alta baja y modificación de la entidad catálogo</t>
   </si>
 </sst>
 </file>
@@ -571,7 +630,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +641,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -626,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,27 +703,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -666,11 +712,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -691,16 +771,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:G8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:G8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID " dataDxfId="0"/>
+    <tableColumn id="1" name="ID " dataDxfId="1"/>
     <tableColumn id="2" name="Nombre "/>
     <tableColumn id="3" name="Descripción "/>
     <tableColumn id="4" name="Responsable "/>
     <tableColumn id="5" name="Entregables "/>
     <tableColumn id="7" name="Requisitos"/>
-    <tableColumn id="8" name="Calidad"/>
+    <tableColumn id="8" name="Calidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,18 +1075,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="94.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="5" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1034,11 +1115,11 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,112 +1142,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:19" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="C10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1180,594 +1282,678 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G40:S40"/>
-    <mergeCell ref="G41:S41"/>
-    <mergeCell ref="G39:S39"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
